--- a/biology/Zoologie/Adelpha_donysa/Adelpha_donysa.xlsx
+++ b/biology/Zoologie/Adelpha_donysa/Adelpha_donysa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha donysa  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha donysa a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa donysa[1].
-Sous-espèces
-Adelpha donysa donysa; présent au Mexique
-Adelpha donysa albifilum Steinhauser, 1974; présent au Salvador[1].
-Noms vernaculaires
-Adelpha donysa se nomme en anglais Donysa Sister[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha donysa a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa donysa.
 </t>
         </is>
       </c>
@@ -544,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha donysa est un papillon à bord externe des ailes antérieures légèrement concave au dessus marron marqué d'une large bande orange dans l'aire postdiscale des ailes antérieures depuis le bord costal et couvrant les 2/3 et une bande blanche étroite dans l'aire discale du milieu des ailes antérieures au bord interne et du bord costal des ailes postérieures à l'angle anal qui est marqué d'une tache orange.
-Le revers est beige à dessins gris avec la même bande orange et la même bande blanche que sur le dessus.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha donysa donysa; présent au Mexique
+Adelpha donysa albifilum Steinhauser, 1974; présent au Salvador.</t>
         </is>
       </c>
     </row>
@@ -576,12 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha donysa se nomme en anglais Donysa Sister.
+</t>
         </is>
       </c>
     </row>
@@ -606,15 +627,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha donysa est un papillon à bord externe des ailes antérieures légèrement concave au dessus marron marqué d'une large bande orange dans l'aire postdiscale des ailes antérieures depuis le bord costal et couvrant les 2/3 et une bande blanche étroite dans l'aire discale du milieu des ailes antérieures au bord interne et du bord costal des ailes postérieures à l'angle anal qui est marqué d'une tache orange.
+Le revers est beige à dessins gris avec la même bande orange et la même bande blanche que sur le dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_donysa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_donysa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha donysa est présent au Mexique, au Salvador et au Guatemala[1],[2]. 
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha donysa est présent au Mexique, au Salvador et au Guatemala,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_donysa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_donysa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
